--- a/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3530-RBI-EI-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-INSTALLMENT-FEE-FLAT-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -73,9 +68,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -203,13 +195,16 @@
   </si>
   <si>
     <t>Accrual</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +224,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -313,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -349,17 +352,8 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,26 +448,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,23 +483,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -713,23 +673,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6">
         <v>42005</v>
@@ -737,7 +697,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6">
         <v>42005</v>
@@ -745,7 +705,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8">
         <v>10000</v>
@@ -753,15 +713,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6">
         <v>42005</v>
@@ -769,7 +729,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="10">
         <v>10000</v>
@@ -777,23 +737,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6">
         <v>42005</v>
@@ -801,23 +761,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="6">
         <v>42005</v>
@@ -825,10 +785,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -853,15 +813,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="15">
         <v>4000</v>
@@ -869,7 +829,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6">
         <v>42019</v>
@@ -877,7 +837,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="15">
         <v>4000</v>
@@ -885,7 +845,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18">
         <v>10045.16</v>
@@ -893,10 +853,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -926,22 +886,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1188,141 +1148,149 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>964</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>126</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="C2" s="12">
         <v>42019</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="19">
-        <v>145.16</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19">
+      <c r="D2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="11">
         <v>45.16</v>
       </c>
-      <c r="H2" s="19">
-        <v>100</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0</v>
-      </c>
-      <c r="J2" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>125</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>45.16</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>573</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="12">
         <v>42019</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="D3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="14">
         <v>10045.16</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="13">
         <v>10000</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="11">
         <v>45.16</v>
       </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>121</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>571</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="12">
         <v>42005</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="13">
         <v>10000</v>
       </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>10000</v>
       </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
